--- a/한화_기록.xlsx
+++ b/한화_기록.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:AA6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,6 +512,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -528,43 +583,76 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.265</v>
+        <v>0.271</v>
       </c>
       <c r="E2" t="n">
+        <v>28</v>
+      </c>
+      <c r="F2" t="n">
+        <v>65</v>
+      </c>
+      <c r="G2" t="n">
+        <v>59</v>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+      <c r="I2" t="n">
+        <v>16</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="n">
         <v>25</v>
       </c>
-      <c r="F2" t="n">
-        <v>54</v>
-      </c>
-      <c r="G2" t="n">
-        <v>49</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="N2" t="n">
         <v>8</v>
       </c>
-      <c r="I2" t="n">
-        <v>13</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>22</v>
-      </c>
-      <c r="N2" t="n">
-        <v>7</v>
-      </c>
       <c r="O2" t="n">
         <v>2</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>4</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>10</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -620,6 +708,39 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -639,22 +760,22 @@
         <v>0.208</v>
       </c>
       <c r="E4" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F4" t="n">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G4" t="n">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="H4" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -663,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N4" t="n">
         <v>14</v>
@@ -673,6 +794,39 @@
       </c>
       <c r="P4" t="n">
         <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>25</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="n">
+        <v>40</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.572</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -690,25 +844,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -717,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -726,6 +880,39 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -780,6 +967,39 @@
         <v>1</v>
       </c>
       <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -794,7 +1014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:AA10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -878,6 +1098,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -932,6 +1207,39 @@
       <c r="P2" t="n">
         <v>1</v>
       </c>
+      <c r="Q2" t="n">
+        <v>31</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>2</v>
+      </c>
+      <c r="T2" t="n">
+        <v>45</v>
+      </c>
+      <c r="U2" t="n">
+        <v>8</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.408</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.804</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -948,25 +1256,25 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.292</v>
+        <v>0.284</v>
       </c>
       <c r="E3" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F3" t="n">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="G3" t="n">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="H3" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K3" t="n">
         <v>2</v>
@@ -975,16 +1283,49 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>40</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>59</v>
+      </c>
+      <c r="U3" t="n">
+        <v>7</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.371</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1002,22 +1343,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.283</v>
+        <v>0.276</v>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F4" t="n">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="G4" t="n">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="H4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J4" t="n">
         <v>6</v>
@@ -1026,19 +1367,52 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="N4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>10</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="n">
+        <v>49</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.448</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.765</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="5">
@@ -1047,7 +1421,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>박정현</t>
+          <t>변우혁</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1056,43 +1430,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.244</v>
+        <v>0.255</v>
       </c>
       <c r="E5" t="n">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="G5" t="n">
-        <v>127</v>
+        <v>47</v>
       </c>
       <c r="H5" t="n">
+        <v>3</v>
+      </c>
+      <c r="I5" t="n">
+        <v>12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>3</v>
+      </c>
+      <c r="M5" t="n">
+        <v>23</v>
+      </c>
+      <c r="N5" t="n">
+        <v>6</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
         <v>16</v>
       </c>
-      <c r="I5" t="n">
-        <v>31</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
-      <c r="M5" t="n">
-        <v>43</v>
-      </c>
-      <c r="N5" t="n">
-        <v>14</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
+      <c r="U5" t="n">
+        <v>2</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.489</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.744</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -1101,7 +1508,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>하주석</t>
+          <t>박정현</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1110,43 +1517,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.213</v>
+        <v>0.241</v>
       </c>
       <c r="E6" t="n">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="F6" t="n">
-        <v>222</v>
+        <v>151</v>
       </c>
       <c r="G6" t="n">
-        <v>202</v>
+        <v>145</v>
       </c>
       <c r="H6" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3</v>
+      </c>
+      <c r="M6" t="n">
+        <v>47</v>
+      </c>
+      <c r="N6" t="n">
+        <v>14</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>42</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="Y6" t="n">
         <v>7</v>
       </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>3</v>
-      </c>
-      <c r="M6" t="n">
-        <v>59</v>
-      </c>
-      <c r="N6" t="n">
-        <v>31</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2</v>
+      <c r="Z6" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.167</v>
       </c>
     </row>
     <row r="7">
@@ -1155,7 +1595,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이성곤</t>
+          <t>하주석</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1164,43 +1604,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.206</v>
+        <v>0.213</v>
       </c>
       <c r="E7" t="n">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F7" t="n">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="G7" t="n">
-        <v>68</v>
+        <v>202</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="J7" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N7" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>16</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>2</v>
+      </c>
+      <c r="T7" t="n">
+        <v>62</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.292</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.258</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -1209,7 +1682,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>변우혁</t>
+          <t>이성곤</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1218,43 +1691,76 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.194</v>
+        <v>0.206</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F8" t="n">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="G8" t="n">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="N8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>12</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>23</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.575</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="9">
@@ -1272,16 +1778,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.169</v>
+        <v>0.165</v>
       </c>
       <c r="E9" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F9" t="n">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G9" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="H9" t="n">
         <v>7</v>
@@ -1305,10 +1811,43 @@
         <v>4</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>24</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.143</v>
       </c>
     </row>
     <row r="10">
@@ -1362,6 +1901,39 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="n">
+        <v>11</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1376,7 +1948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1460,6 +2032,61 @@
           <t>SF</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>BB</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>IBB</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>HBP</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>SLG</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>OBP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>OPS</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>MH</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>RISP</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>PH-BA</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1467,7 +2094,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>장운호</t>
+          <t>유로결</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1476,43 +2103,76 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="E2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="G2" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.333</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1521,7 +2181,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>터크먼</t>
+          <t>장운호</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1530,43 +2190,76 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.297</v>
+        <v>0.3</v>
       </c>
       <c r="E3" t="n">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="F3" t="n">
-        <v>313</v>
+        <v>35</v>
       </c>
       <c r="G3" t="n">
-        <v>283</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="J3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>118</v>
+        <v>14</v>
       </c>
       <c r="N3" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>3</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>8</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.467</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.353</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.273</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1575,7 +2268,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>권광민</t>
+          <t>터크먼</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1584,43 +2277,76 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.256</v>
+        <v>0.291</v>
       </c>
       <c r="E4" t="n">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="F4" t="n">
-        <v>58</v>
+        <v>339</v>
       </c>
       <c r="G4" t="n">
-        <v>43</v>
+        <v>306</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
+        <v>124</v>
+      </c>
+      <c r="N4" t="n">
         <v>16</v>
       </c>
-      <c r="N4" t="n">
-        <v>6</v>
-      </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>28</v>
+      </c>
+      <c r="R4" t="n">
+        <v>2</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>56</v>
+      </c>
+      <c r="U4" t="n">
+        <v>7</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.759</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>26</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1629,7 +2355,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>이진영</t>
+          <t>권광민</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1638,43 +2364,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.217</v>
+        <v>0.233</v>
       </c>
       <c r="E5" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F5" t="n">
-        <v>163</v>
+        <v>75</v>
       </c>
       <c r="G5" t="n">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="H5" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="J5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="N5" t="n">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>13</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="n">
+        <v>26</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.373</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1692,43 +2451,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.217</v>
+        <v>0.229</v>
       </c>
       <c r="E6" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="F6" t="n">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="G6" t="n">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="N6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="O6" t="n">
         <v>4</v>
       </c>
       <c r="P6" t="n">
         <v>1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>19</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>61</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0.374</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.302</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.676</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="7">
@@ -1737,7 +2529,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>김태연</t>
+          <t>이진영</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1746,43 +2538,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.209</v>
+        <v>0.223</v>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="n">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="G7" t="n">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="I7" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="N7" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>14</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>64</v>
+      </c>
+      <c r="U7" t="n">
+        <v>3</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.268</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.333</v>
       </c>
     </row>
     <row r="8">
@@ -1791,7 +2616,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>임종찬</t>
+          <t>김태연</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1800,43 +2625,76 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.189</v>
+        <v>0.218</v>
       </c>
       <c r="E8" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F8" t="n">
-        <v>57</v>
+        <v>225</v>
       </c>
       <c r="G8" t="n">
-        <v>53</v>
+        <v>202</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I8" t="n">
+        <v>44</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" t="n">
+        <v>60</v>
+      </c>
+      <c r="N8" t="n">
+        <v>27</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>18</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2</v>
+      </c>
+      <c r="T8" t="n">
+        <v>56</v>
+      </c>
+      <c r="U8" t="n">
+        <v>7</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.297</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.286</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="Y8" t="n">
         <v>10</v>
       </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2</v>
-      </c>
-      <c r="M8" t="n">
-        <v>17</v>
-      </c>
-      <c r="N8" t="n">
-        <v>6</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>1</v>
+      <c r="Z8" t="n">
+        <v>0.226</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1845,7 +2703,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>이원석</t>
+          <t>임종찬</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1854,42 +2712,75 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.13</v>
+        <v>0.189</v>
       </c>
       <c r="E9" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F9" t="n">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="G9" t="n">
+        <v>53</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>17</v>
+      </c>
+      <c r="N9" t="n">
+        <v>6</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
         <v>23</v>
       </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>6</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.321</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.549</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.222</v>
+      </c>
+      <c r="AA9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1899,7 +2790,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>원혁재</t>
+          <t>이원석</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1908,42 +2799,75 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.095</v>
+        <v>0.13</v>
       </c>
       <c r="E10" t="n">
+        <v>13</v>
+      </c>
+      <c r="F10" t="n">
+        <v>25</v>
+      </c>
+      <c r="G10" t="n">
+        <v>23</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>6</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
         <v>11</v>
       </c>
-      <c r="F10" t="n">
-        <v>23</v>
-      </c>
-      <c r="G10" t="n">
-        <v>21</v>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>3</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.261</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1953,7 +2877,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>유로결</t>
+          <t>원혁재</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1962,25 +2886,25 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.095</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1989,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1998,6 +2922,39 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>12</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.143</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AA11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2012,7 +2969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AG31"/>
+  <dimension ref="A1:AQ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2181,6 +3138,56 @@
           <t>BK</t>
         </is>
       </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Wgs</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Wgr</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>GF</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>SVO</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>TS</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>GDP</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>GO</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>AO</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>GO/AO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2188,7 +3195,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>김기중</t>
+          <t>김민우</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2198,20 +3205,20 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>85</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.19</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -2219,34 +3226,32 @@
       <c r="J2" t="n">
         <v>0</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K2" t="n">
+        <v>0.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
+        <v>49</v>
+      </c>
+      <c r="O2" t="n">
         <v>6</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="S2" t="n">
-        <v>2.33</v>
+        <v>1.46</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -2255,40 +3260,70 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>379</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>1467</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.238</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
         <v>16</v>
       </c>
-      <c r="Y2" t="n">
-        <v>71</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
+      <c r="AI2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>89</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>90</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0.99</v>
       </c>
     </row>
     <row r="3">
@@ -2297,7 +3332,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>임준섭</t>
+          <t>윤대경</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2307,20 +3342,20 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>66 1/3</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>7.73</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -2328,34 +3363,32 @@
       <c r="J3" t="n">
         <v>0</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K3" t="n">
+        <v>0.273</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -2364,40 +3397,70 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
+        <v>304</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1093</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.324</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD3" t="n">
         <v>4</v>
       </c>
-      <c r="Y3" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>0</v>
-      </c>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>89</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0.62</v>
       </c>
     </row>
     <row r="4">
@@ -2406,7 +3469,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>윤산흠</t>
+          <t>장민재</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2416,97 +3479,125 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>9 2/3</t>
+          <t>59 2/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.93</v>
+        <v>4.22</v>
       </c>
       <c r="F4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.429</v>
       </c>
       <c r="L4" t="n">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>7</v>
+      </c>
+      <c r="N4" t="n">
+        <v>17</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>29</v>
+      </c>
+      <c r="R4" t="n">
+        <v>28</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>249</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>984</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD4" t="n">
         <v>4</v>
       </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>14</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0</v>
-      </c>
-      <c r="X4" t="n">
-        <v>39</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>158</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0</v>
-      </c>
       <c r="AE4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG4" t="n">
         <v>0</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>59</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>1.19</v>
       </c>
     </row>
     <row r="5">
@@ -2515,7 +3606,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>카펜터</t>
+          <t>남지민</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2525,20 +3616,20 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>44 2/3</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.5</v>
+        <v>6.45</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2547,31 +3638,31 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L5" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="M5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="n">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="R5" t="n">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.81</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -2580,31 +3671,31 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>79</v>
+        <v>215</v>
       </c>
       <c r="Y5" t="n">
-        <v>330</v>
+        <v>781</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.268</v>
+        <v>0.305</v>
       </c>
       <c r="AA5" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AB5" t="n">
         <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
@@ -2614,6 +3705,36 @@
       </c>
       <c r="AG5" t="n">
         <v>0</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>62</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>49</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1.27</v>
       </c>
     </row>
     <row r="6">
@@ -2622,7 +3743,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>킹험</t>
+          <t>박윤철</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2632,20 +3753,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>16 1/3</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2.76</v>
+        <v>4.85</v>
       </c>
       <c r="F6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2654,31 +3775,31 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N6" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P6" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Q6" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="S6" t="n">
-        <v>1.22</v>
+        <v>1.96</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -2687,40 +3808,70 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="Y6" t="n">
-        <v>286</v>
+        <v>509</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.238</v>
+        <v>0.305</v>
       </c>
       <c r="AA6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE6" t="n">
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.17</v>
       </c>
     </row>
     <row r="7">
@@ -2729,7 +3880,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>김종수</t>
+          <t>이민우</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2739,53 +3890,53 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>31 2/3</t>
+          <t>36 2/3</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.84</v>
+        <v>5.89</v>
       </c>
       <c r="F7" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0.5</v>
       </c>
       <c r="L7" t="n">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="Q7" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="R7" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="S7" t="n">
-        <v>0.95</v>
+        <v>1.72</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -2797,37 +3948,67 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="Y7" t="n">
-        <v>521</v>
+        <v>655</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.181</v>
+        <v>0.327</v>
       </c>
       <c r="AA7" t="n">
         <v>9</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
         <v>4</v>
       </c>
-      <c r="AD7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>1</v>
+      <c r="AO7" t="n">
+        <v>44</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.07</v>
       </c>
     </row>
     <row r="8">
@@ -2836,7 +4017,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>윤호솔</t>
+          <t>카펜터</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2846,53 +4027,53 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24 2/3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.92</v>
+        <v>2.5</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>19</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="n">
         <v>6</v>
       </c>
-      <c r="K8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L8" t="n">
-        <v>20</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="n">
-        <v>13</v>
-      </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="Q8" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -2904,37 +4085,67 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="n">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.217</v>
+        <v>0.268</v>
       </c>
       <c r="AA8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
         <v>1</v>
       </c>
       <c r="AE8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>4</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>1.53</v>
       </c>
     </row>
     <row r="9">
@@ -2943,7 +4154,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>장시환</t>
+          <t>킹험</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2953,53 +4164,53 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>16 1/3</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3.09</v>
+        <v>2.76</v>
       </c>
       <c r="F9" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="L9" t="n">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
         <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="Q9" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="R9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -3008,31 +4219,31 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="Y9" t="n">
-        <v>568</v>
+        <v>286</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.222</v>
+        <v>0.238</v>
       </c>
       <c r="AA9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB9" t="n">
         <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>0</v>
@@ -3042,6 +4253,36 @@
       </c>
       <c r="AG9" t="n">
         <v>0</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="10">
@@ -3050,7 +4291,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>강재민</t>
+          <t>라미레즈</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -3060,95 +4301,125 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19 1/3</t>
+          <t>7 1/3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.26</v>
+        <v>3.68</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>2</v>
       </c>
       <c r="P10" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
+        <v>6</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>37</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>134</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP10" t="n">
         <v>7</v>
       </c>
-      <c r="R10" t="n">
-        <v>7</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>82</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>318</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>0.186</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>0</v>
+      <c r="AQ10" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="11">
@@ -3157,7 +4428,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>신정락</t>
+          <t>페냐</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -3167,53 +4438,53 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>30 2/3</t>
+          <t>3 2/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3.52</v>
+        <v>4.91</v>
       </c>
       <c r="F11" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="R11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
-        <v>1.21</v>
+        <v>1.36</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -3228,34 +4499,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>136</v>
+        <v>15</v>
       </c>
       <c r="Y11" t="n">
-        <v>453</v>
+        <v>61</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.248</v>
+        <v>0.231</v>
       </c>
       <c r="AA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="n">
         <v>6</v>
       </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
+      <c r="AQ11" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="12">
@@ -3264,7 +4565,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>라미레즈</t>
+          <t>문동주</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -3274,14 +4575,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2 1/3</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3.86</v>
+        <v>8.56</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -3293,34 +4594,34 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
         <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="R12" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>1.46</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -3335,34 +4636,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="Y12" t="n">
-        <v>61</v>
+        <v>246</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.385</v>
+        <v>0.259</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE12" t="n">
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -3371,7 +4702,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>김범수</t>
+          <t>한승주</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -3381,53 +4712,55 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>31 1/3</t>
+          <t>9 2/3</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4.02</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
         <v>4</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="n">
-        <v>13</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="L13" t="n">
-        <v>34</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="n">
-        <v>11</v>
-      </c>
       <c r="O13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="Q13" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>1.44</v>
+        <v>2.48</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -3439,37 +4772,67 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>136</v>
+        <v>52</v>
       </c>
       <c r="Y13" t="n">
-        <v>520</v>
+        <v>189</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.281</v>
+        <v>0.444</v>
       </c>
       <c r="AA13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP13" t="n">
         <v>9</v>
       </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
+      <c r="AQ13" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="14">
@@ -3478,7 +4841,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>장민재</t>
+          <t>김재영</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -3488,95 +4851,125 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>54 2/3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.28</v>
+        <v>7.88</v>
       </c>
       <c r="F14" t="n">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>9</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>13</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>187</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AA14" t="n">
         <v>4</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="L14" t="n">
-        <v>61</v>
-      </c>
-      <c r="M14" t="n">
-        <v>6</v>
-      </c>
-      <c r="N14" t="n">
-        <v>17</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>35</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>27</v>
-      </c>
-      <c r="R14" t="n">
-        <v>26</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>231</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>912</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.292</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>9</v>
-      </c>
       <c r="AB14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="15">
@@ -3585,7 +4978,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>박윤철</t>
+          <t>김기중</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -3595,20 +4988,20 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>4.85</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -3616,74 +5009,106 @@
       <c r="J15" t="n">
         <v>0</v>
       </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L15" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
+        <v>0</v>
+      </c>
+      <c r="X15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>71</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP15" t="n">
         <v>4</v>
       </c>
-      <c r="N15" t="n">
-        <v>19</v>
-      </c>
-      <c r="O15" t="n">
-        <v>2</v>
-      </c>
-      <c r="P15" t="n">
-        <v>12</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>19</v>
-      </c>
-      <c r="R15" t="n">
-        <v>14</v>
-      </c>
-      <c r="S15" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="T15" t="n">
-        <v>0</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
-      </c>
-      <c r="X15" t="n">
-        <v>129</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>509</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>0.305</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>1</v>
+      <c r="AQ15" t="n">
+        <v>0.75</v>
       </c>
     </row>
     <row r="16">
@@ -3692,7 +5117,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>정우람</t>
+          <t>주현상</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -3702,14 +5127,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>5.14</v>
+        <v>7.25</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -3718,10 +5143,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -3729,70 +5154,100 @@
         </is>
       </c>
       <c r="L16" t="n">
+        <v>50</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
         <v>11</v>
       </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="Q16" t="n">
+        <v>30</v>
+      </c>
+      <c r="R16" t="n">
+        <v>29</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>165</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>621</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
         <v>6</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AL16" t="n">
         <v>4</v>
       </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>37</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>139</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.344</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>28</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>49</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0.57</v>
       </c>
     </row>
     <row r="17">
@@ -3801,7 +5256,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>김민우</t>
+          <t>박준영</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -3811,95 +5266,127 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>78</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.31</v>
+        <v>6.75</v>
       </c>
       <c r="F17" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>4</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="n">
+        <v>2</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>101</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP17" t="n">
         <v>6</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.333</v>
-      </c>
-      <c r="L17" t="n">
-        <v>68</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10</v>
-      </c>
-      <c r="N17" t="n">
-        <v>45</v>
-      </c>
-      <c r="O17" t="n">
-        <v>5</v>
-      </c>
-      <c r="P17" t="n">
-        <v>61</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>48</v>
-      </c>
-      <c r="R17" t="n">
-        <v>46</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>5</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>347</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>1367</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.236</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>5</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
+      <c r="AQ17" t="n">
+        <v>0.33</v>
       </c>
     </row>
     <row r="18">
@@ -3908,7 +5395,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>이충호</t>
+          <t>류희운</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -3918,20 +5405,20 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>4 2/3</t>
+          <t>5 2/3</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5.79</v>
+        <v>14.29</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -3940,31 +5427,31 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S18" t="n">
-        <v>2.36</v>
+        <v>1.94</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -3979,16 +5466,16 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Y18" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="AA18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" t="n">
         <v>0</v>
@@ -4003,10 +5490,40 @@
         <v>0</v>
       </c>
       <c r="AF18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18" t="n">
         <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="19">
@@ -4015,7 +5532,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>김규연</t>
+          <t>송윤준</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -4025,14 +5542,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>11 2/3</t>
+          <t>4 1/3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6.17</v>
+        <v>6.23</v>
       </c>
       <c r="F19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -4044,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -4052,28 +5569,28 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S19" t="n">
-        <v>2.23</v>
+        <v>1.15</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -4088,34 +5605,64 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="Y19" t="n">
-        <v>259</v>
+        <v>72</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.314</v>
+        <v>0.188</v>
       </c>
       <c r="AA19" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.43</v>
       </c>
     </row>
     <row r="20">
@@ -4124,7 +5671,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>송윤준</t>
+          <t>정우람</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -4134,14 +5681,14 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4 1/3</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6.23</v>
+        <v>5.14</v>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -4150,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -4161,28 +5708,28 @@
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>1.15</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -4197,34 +5744,64 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="Y20" t="n">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.188</v>
+        <v>0.344</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD20" t="n">
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4233,7 +5810,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>이민우</t>
+          <t>이충호</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -4243,20 +5820,20 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>34 1/3</t>
+          <t>4 2/3</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6.29</v>
+        <v>5.79</v>
       </c>
       <c r="F21" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -4265,64 +5842,64 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
         <v>25</v>
       </c>
-      <c r="R21" t="n">
-        <v>24</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="n">
-        <v>157</v>
-      </c>
       <c r="Y21" t="n">
-        <v>616</v>
+        <v>92</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.34</v>
+        <v>0.333</v>
       </c>
       <c r="AA21" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="AB21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE21" t="n">
         <v>0</v>
@@ -4332,6 +5909,36 @@
       </c>
       <c r="AG21" t="n">
         <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>6</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0.67</v>
       </c>
     </row>
     <row r="22">
@@ -4340,7 +5947,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>남지민</t>
+          <t>김규연</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -4350,95 +5957,127 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>39 2/3</t>
+          <t>12 2/3</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6.58</v>
+        <v>5.68</v>
       </c>
       <c r="F22" t="n">
+        <v>11</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>16</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>11</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>10</v>
       </c>
-      <c r="G22" t="n">
-        <v>1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.143</v>
-      </c>
-      <c r="L22" t="n">
-        <v>54</v>
-      </c>
-      <c r="M22" t="n">
+      <c r="Q22" t="n">
+        <v>11</v>
+      </c>
+      <c r="R22" t="n">
+        <v>8</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>66</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>280</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="AA22" t="n">
         <v>5</v>
       </c>
-      <c r="N22" t="n">
-        <v>19</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="AB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP22" t="n">
         <v>17</v>
       </c>
-      <c r="Q22" t="n">
-        <v>34</v>
-      </c>
-      <c r="R22" t="n">
-        <v>29</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
-      </c>
-      <c r="X22" t="n">
-        <v>192</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>696</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>0.316</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>0</v>
+      <c r="AQ22" t="n">
+        <v>0.71</v>
       </c>
     </row>
     <row r="23">
@@ -4447,7 +6086,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>박준영</t>
+          <t>임준섭</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -4457,14 +6096,14 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6.75</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -4484,49 +6123,49 @@
         </is>
       </c>
       <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
         <v>4</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>4</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>3</v>
-      </c>
-      <c r="R23" t="n">
-        <v>3</v>
-      </c>
-      <c r="S23" t="n">
-        <v>2</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>19</v>
-      </c>
       <c r="Y23" t="n">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="Z23" t="n">
-        <v>0.267</v>
+        <v>0.25</v>
       </c>
       <c r="AA23" t="n">
         <v>0</v>
@@ -4544,9 +6183,39 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4556,7 +6225,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>윤대경</t>
+          <t>김범수</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -4566,53 +6235,53 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>65 1/3</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6.89</v>
+        <v>4.11</v>
       </c>
       <c r="F24" t="n">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
       </c>
       <c r="H24" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K24" t="n">
-        <v>0.3</v>
+        <v>0.429</v>
       </c>
       <c r="L24" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" t="n">
+        <v>13</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>31</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>17</v>
+      </c>
+      <c r="R24" t="n">
         <v>16</v>
       </c>
-      <c r="O24" t="n">
-        <v>5</v>
-      </c>
-      <c r="P24" t="n">
-        <v>43</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>50</v>
-      </c>
-      <c r="R24" t="n">
-        <v>50</v>
-      </c>
       <c r="S24" t="n">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -4621,40 +6290,70 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>291</v>
+        <v>149</v>
       </c>
       <c r="Y24" t="n">
-        <v>1039</v>
+        <v>568</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.307</v>
+        <v>0.267</v>
       </c>
       <c r="AA24" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="AB24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AD24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="n">
         <v>4</v>
       </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
       <c r="AF24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>27</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="25">
@@ -4663,7 +6362,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>김재영</t>
+          <t>강재민</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -4673,53 +6372,53 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20 1/3</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7.88</v>
+        <v>3.54</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="O25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P25" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q25" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S25" t="n">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -4734,34 +6433,64 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="Y25" t="n">
-        <v>187</v>
+        <v>348</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.29</v>
+        <v>0.203</v>
       </c>
       <c r="AA25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="n">
         <v>4</v>
       </c>
-      <c r="AB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
+      <c r="AL25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0.95</v>
       </c>
     </row>
     <row r="26">
@@ -4770,7 +6499,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>주현상</t>
+          <t>신정락</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -4780,17 +6509,17 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33 2/3</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>8.16</v>
+        <v>3.48</v>
       </c>
       <c r="F26" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -4799,36 +6528,34 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O26" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q26" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="R26" t="n">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>1.84</v>
+        <v>1.28</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -4840,37 +6567,67 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="Y26" t="n">
-        <v>574</v>
+        <v>511</v>
       </c>
       <c r="Z26" t="n">
-        <v>0.358</v>
+        <v>0.262</v>
       </c>
       <c r="AA26" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AB26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AD26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
         <v>1</v>
       </c>
       <c r="AF26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG26" t="n">
         <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="27">
@@ -4879,7 +6636,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>한승주</t>
+          <t>장시환</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -4889,88 +6646,86 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9 2/3</t>
+          <t>34 1/3</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>8.380000000000001</v>
+        <v>2.88</v>
       </c>
       <c r="F27" t="n">
+        <v>33</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>13</v>
+      </c>
+      <c r="J27" t="n">
+        <v>2</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>27</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
+        <v>13</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>34</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>12</v>
+      </c>
+      <c r="R27" t="n">
+        <v>11</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="n">
+        <v>2</v>
+      </c>
+      <c r="X27" t="n">
+        <v>142</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>599</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="AA27" t="n">
         <v>5</v>
       </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>20</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>4</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>9</v>
-      </c>
-      <c r="R27" t="n">
-        <v>9</v>
-      </c>
-      <c r="S27" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T27" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>52</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>189</v>
-      </c>
-      <c r="Z27" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>3</v>
-      </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>0</v>
@@ -4980,6 +6735,36 @@
       </c>
       <c r="AG27" t="n">
         <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>30</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>34</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0.88</v>
       </c>
     </row>
     <row r="28">
@@ -4988,7 +6773,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>문동주</t>
+          <t>윤호솔</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -4998,95 +6783,125 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>26 2/3</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>8.56</v>
+        <v>2.7</v>
       </c>
       <c r="F28" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L28" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="n">
+        <v>13</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>20</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>9</v>
+      </c>
+      <c r="R28" t="n">
+        <v>8</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="n">
+        <v>2</v>
+      </c>
+      <c r="X28" t="n">
+        <v>115</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>420</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK28" t="n">
         <v>4</v>
       </c>
-      <c r="N28" t="n">
-        <v>6</v>
-      </c>
-      <c r="O28" t="n">
-        <v>1</v>
-      </c>
-      <c r="P28" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>13</v>
-      </c>
-      <c r="R28" t="n">
-        <v>13</v>
-      </c>
-      <c r="S28" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" t="n">
-        <v>62</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>246</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>0</v>
+      <c r="AL28" t="n">
+        <v>7</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>0.84</v>
       </c>
     </row>
     <row r="29">
@@ -5095,7 +6910,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>류희운</t>
+          <t>김종수</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -5105,86 +6920,86 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5 2/3</t>
+          <t>33 2/3</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>14.29</v>
+        <v>2.67</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L29" t="n">
+        <v>22</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>2</v>
+      </c>
+      <c r="P29" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>17</v>
+      </c>
+      <c r="R29" t="n">
         <v>10</v>
       </c>
-      <c r="M29" t="n">
-        <v>2</v>
-      </c>
-      <c r="N29" t="n">
-        <v>1</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
+      <c r="S29" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>2</v>
+      </c>
+      <c r="X29" t="n">
+        <v>135</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>569</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>0.191</v>
+      </c>
+      <c r="AA29" t="n">
         <v>9</v>
       </c>
-      <c r="R29" t="n">
-        <v>9</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>104</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>0</v>
-      </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -5193,7 +7008,37 @@
         <v>0</v>
       </c>
       <c r="AG29" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="30">
@@ -5202,7 +7047,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>이도윤</t>
+          <t>윤산흠</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -5212,14 +7057,14 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1 1/3</t>
+          <t>12 2/3</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>20.25</v>
+        <v>1.42</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -5231,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -5239,70 +7084,100 @@
         </is>
       </c>
       <c r="L30" t="n">
+        <v>7</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
+        <v>18</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T30" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
+        <v>53</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>215</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>0.159</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK30" t="n">
         <v>4</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
-      <c r="S30" t="n">
-        <v>3</v>
-      </c>
-      <c r="T30" t="n">
-        <v>0</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0</v>
-      </c>
-      <c r="X30" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>0</v>
+      <c r="AL30" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>1.11</v>
       </c>
     </row>
     <row r="31">
@@ -5311,7 +7186,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>이재민</t>
+          <t>이도윤</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -5321,11 +7196,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1 1/3</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36</v>
+        <v>20.25</v>
       </c>
       <c r="F31" t="n">
         <v>2</v>
@@ -5348,52 +7223,52 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>8</v>
       </c>
-      <c r="R31" t="n">
-        <v>8</v>
-      </c>
-      <c r="S31" t="n">
-        <v>4</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" t="n">
-        <v>15</v>
-      </c>
       <c r="Y31" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="Z31" t="n">
-        <v>0.375</v>
+        <v>0.5</v>
       </c>
       <c r="AA31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
@@ -5402,7 +7277,7 @@
         <v>0</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
         <v>0</v>
@@ -5412,6 +7287,36 @@
       </c>
       <c r="AG31" t="n">
         <v>0</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/한화_기록.xlsx
+++ b/한화_기록.xlsx
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.208</v>
+        <v>0.209</v>
       </c>
       <c r="E4" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" t="n">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G4" t="n">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="H4" t="n">
         <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
@@ -784,13 +784,13 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4" t="n">
         <v>14</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
         <v>2</v>
@@ -811,13 +811,13 @@
         <v>7</v>
       </c>
       <c r="V4" t="n">
-        <v>0.255</v>
+        <v>0.256</v>
       </c>
       <c r="W4" t="n">
         <v>0.317</v>
       </c>
       <c r="X4" t="n">
-        <v>0.572</v>
+        <v>0.573</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
@@ -1256,22 +1256,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.284</v>
+        <v>0.283</v>
       </c>
       <c r="E3" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="n">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="G3" t="n">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="H3" t="n">
         <v>38</v>
       </c>
       <c r="I3" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J3" t="n">
         <v>12</v>
@@ -1283,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N3" t="n">
         <v>32</v>
@@ -1304,19 +1304,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="U3" t="n">
         <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>0.396</v>
+        <v>0.394</v>
       </c>
       <c r="W3" t="n">
-        <v>0.371</v>
+        <v>0.37</v>
       </c>
       <c r="X3" t="n">
-        <v>0.767</v>
+        <v>0.764</v>
       </c>
       <c r="Y3" t="n">
         <v>23</v>
@@ -1343,16 +1343,16 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.276</v>
+        <v>0.27</v>
       </c>
       <c r="E4" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F4" t="n">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G4" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H4" t="n">
         <v>21</v>
@@ -1397,13 +1397,13 @@
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.448</v>
+        <v>0.438</v>
       </c>
       <c r="W4" t="n">
-        <v>0.317</v>
+        <v>0.311</v>
       </c>
       <c r="X4" t="n">
-        <v>0.765</v>
+        <v>0.749</v>
       </c>
       <c r="Y4" t="n">
         <v>14</v>
@@ -1430,16 +1430,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
       <c r="E5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G5" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
@@ -1478,25 +1478,25 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.489</v>
+        <v>0.469</v>
       </c>
       <c r="W5" t="n">
-        <v>0.255</v>
+        <v>0.245</v>
       </c>
       <c r="X5" t="n">
-        <v>0.744</v>
+        <v>0.714</v>
       </c>
       <c r="Y5" t="n">
         <v>3</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.182</v>
+        <v>0.167</v>
       </c>
       <c r="AA5" t="n">
         <v>0.5</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.213</v>
+        <v>0.218</v>
       </c>
       <c r="E7" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7" t="n">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G7" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H7" t="n">
         <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" t="n">
         <v>7</v>
@@ -1631,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N7" t="n">
         <v>31</v>
@@ -1658,16 +1658,16 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>0.292</v>
+        <v>0.296</v>
       </c>
       <c r="W7" t="n">
-        <v>0.275</v>
+        <v>0.279</v>
       </c>
       <c r="X7" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="Y7" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>0.258</v>
@@ -1781,7 +1781,7 @@
         <v>0.165</v>
       </c>
       <c r="E9" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F9" t="n">
         <v>94</v>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>유로결</t>
+          <t>장운호</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2103,46 +2103,46 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="E2" t="n">
+        <v>16</v>
+      </c>
+      <c r="F2" t="n">
+        <v>35</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="n">
+        <v>14</v>
+      </c>
+      <c r="N2" t="n">
         <v>7</v>
       </c>
-      <c r="F2" t="n">
-        <v>10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -2151,25 +2151,25 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4</v>
+        <v>0.467</v>
       </c>
       <c r="W2" t="n">
-        <v>0.4</v>
+        <v>0.353</v>
       </c>
       <c r="X2" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.333</v>
+        <v>0.273</v>
       </c>
       <c r="AA2" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>장운호</t>
+          <t>터크먼</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2190,73 +2190,73 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="E3" t="n">
+        <v>77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>343</v>
+      </c>
+      <c r="G3" t="n">
+        <v>310</v>
+      </c>
+      <c r="H3" t="n">
+        <v>47</v>
+      </c>
+      <c r="I3" t="n">
+        <v>90</v>
+      </c>
+      <c r="J3" t="n">
+        <v>17</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>125</v>
+      </c>
+      <c r="N3" t="n">
         <v>16</v>
       </c>
-      <c r="F3" t="n">
-        <v>35</v>
-      </c>
-      <c r="G3" t="n">
-        <v>30</v>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="n">
-        <v>14</v>
-      </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>28</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2</v>
+      </c>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
+      <c r="T3" t="n">
+        <v>57</v>
+      </c>
+      <c r="U3" t="n">
         <v>7</v>
       </c>
-      <c r="O3" t="n">
-        <v>1</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>8</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
       <c r="V3" t="n">
-        <v>0.467</v>
+        <v>0.403</v>
       </c>
       <c r="W3" t="n">
         <v>0.353</v>
       </c>
       <c r="X3" t="n">
-        <v>0.82</v>
+        <v>0.756</v>
       </c>
       <c r="Y3" t="n">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.273</v>
+        <v>0.189</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>터크먼</t>
+          <t>유로결</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2277,73 +2277,73 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.291</v>
+        <v>0.286</v>
       </c>
       <c r="E4" t="n">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="F4" t="n">
-        <v>339</v>
+        <v>14</v>
       </c>
       <c r="G4" t="n">
-        <v>306</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>4</v>
       </c>
-      <c r="M4" t="n">
-        <v>124</v>
-      </c>
       <c r="N4" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.405</v>
+        <v>0.286</v>
       </c>
       <c r="W4" t="n">
-        <v>0.354</v>
+        <v>0.286</v>
       </c>
       <c r="X4" t="n">
-        <v>0.759</v>
+        <v>0.572</v>
       </c>
       <c r="Y4" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.189</v>
+        <v>0.2</v>
       </c>
       <c r="AA4" t="n">
         <v>0</v>
@@ -2451,22 +2451,22 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.229</v>
+        <v>0.232</v>
       </c>
       <c r="E6" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G6" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H6" t="n">
         <v>16</v>
       </c>
       <c r="I6" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J6" t="n">
         <v>8</v>
@@ -2478,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="N6" t="n">
         <v>18</v>
@@ -2505,13 +2505,13 @@
         <v>1</v>
       </c>
       <c r="V6" t="n">
-        <v>0.374</v>
+        <v>0.376</v>
       </c>
       <c r="W6" t="n">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="X6" t="n">
-        <v>0.676</v>
+        <v>0.679</v>
       </c>
       <c r="Y6" t="n">
         <v>11</v>
@@ -2520,7 +2520,7 @@
         <v>0.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7">
@@ -2538,16 +2538,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.223</v>
+        <v>0.218</v>
       </c>
       <c r="E7" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" t="n">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G7" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H7" t="n">
         <v>25</v>
@@ -2586,19 +2586,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="U7" t="n">
         <v>3</v>
       </c>
       <c r="V7" t="n">
-        <v>0.416</v>
+        <v>0.406</v>
       </c>
       <c r="W7" t="n">
-        <v>0.279</v>
+        <v>0.273</v>
       </c>
       <c r="X7" t="n">
-        <v>0.695</v>
+        <v>0.679</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.218</v>
+        <v>0.214</v>
       </c>
       <c r="E8" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F8" t="n">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G8" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H8" t="n">
         <v>22</v>
@@ -2673,19 +2673,19 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="U8" t="n">
         <v>7</v>
       </c>
       <c r="V8" t="n">
-        <v>0.297</v>
+        <v>0.291</v>
       </c>
       <c r="W8" t="n">
-        <v>0.286</v>
+        <v>0.281</v>
       </c>
       <c r="X8" t="n">
-        <v>0.583</v>
+        <v>0.572</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>킹험</t>
+          <t>라미레즈</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4164,20 +4164,20 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>16 1/3</t>
+          <t>13 1/3</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.76</v>
+        <v>2.03</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -4186,31 +4186,31 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -4219,25 +4219,25 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="Y9" t="n">
-        <v>286</v>
+        <v>220</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.238</v>
+        <v>0.245</v>
       </c>
       <c r="AA9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -4258,7 +4258,7 @@
         <v>3</v>
       </c>
       <c r="AI9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -4273,16 +4273,16 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.88</v>
+        <v>1.31</v>
       </c>
     </row>
     <row r="10">
@@ -4291,7 +4291,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>라미레즈</t>
+          <t>킹험</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -4301,20 +4301,20 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>7 1/3</t>
+          <t>16 1/3</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.68</v>
+        <v>2.76</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.333</v>
       </c>
       <c r="L10" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
@@ -4335,19 +4335,19 @@
         <v>5</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="Q10" t="n">
         <v>6</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>1.91</v>
+        <v>1.22</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -4356,25 +4356,25 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="Y10" t="n">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.31</v>
+        <v>0.238</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -4392,10 +4392,10 @@
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -4410,16 +4410,16 @@
         <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="AP10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.29</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="11">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>페냐</t>
+          <t>문동주</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4438,14 +4438,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3 2/3</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.91</v>
+        <v>8.56</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -4457,34 +4457,34 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -4499,64 +4499,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
+        <v>62</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>246</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.259</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO11" t="n">
         <v>15</v>
       </c>
-      <c r="Y11" t="n">
-        <v>61</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.231</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1</v>
-      </c>
       <c r="AP11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.17</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="12">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>문동주</t>
+          <t>한승주</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4575,125 +4575,127 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>9 2/3</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.56</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>20</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>4</v>
+      </c>
+      <c r="O12" t="n">
+        <v>2</v>
+      </c>
+      <c r="P12" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>9</v>
+      </c>
+      <c r="R12" t="n">
+        <v>9</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>52</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>189</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>14</v>
-      </c>
-      <c r="M12" t="n">
-        <v>4</v>
-      </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
-      <c r="P12" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>13</v>
-      </c>
-      <c r="R12" t="n">
-        <v>13</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>62</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>246</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.5</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="13">
@@ -4702,7 +4704,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>한승주</t>
+          <t>김재영</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4712,11 +4714,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9 2/3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>8.380000000000001</v>
+        <v>7.88</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
@@ -4725,7 +4727,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4733,106 +4735,104 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
+        <v>6</v>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>13</v>
+      </c>
+      <c r="R13" t="n">
+        <v>7</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T13" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="n">
+        <v>0</v>
+      </c>
+      <c r="X13" t="n">
+        <v>42</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>187</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AA13" t="n">
         <v>4</v>
       </c>
-      <c r="O13" t="n">
-        <v>2</v>
-      </c>
-      <c r="P13" t="n">
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP13" t="n">
         <v>7</v>
       </c>
-      <c r="Q13" t="n">
-        <v>9</v>
-      </c>
-      <c r="R13" t="n">
-        <v>9</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.48</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0</v>
-      </c>
-      <c r="X13" t="n">
-        <v>52</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>189</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ13" t="n">
-        <v>1.11</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="14">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>김재영</t>
+          <t>페냐</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4851,20 +4851,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3 2/3</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7.88</v>
+        <v>4.91</v>
       </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -4876,100 +4876,100 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>2</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP14" t="n">
         <v>6</v>
       </c>
-      <c r="O14" t="n">
-        <v>3</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>13</v>
-      </c>
-      <c r="R14" t="n">
-        <v>7</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>42</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>187</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>2</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>7</v>
-      </c>
       <c r="AQ14" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="15">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>주현상</t>
+          <t>박준영</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5127,14 +5127,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="F16" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -5154,28 +5154,28 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="R16" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="S16" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -5187,31 +5187,31 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
-        <v>621</v>
+        <v>101</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.34</v>
+        <v>0.267</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -5229,25 +5229,25 @@
         <v>0</v>
       </c>
       <c r="AK16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP16" t="n">
         <v>6</v>
       </c>
-      <c r="AL16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP16" t="n">
-        <v>49</v>
-      </c>
       <c r="AQ16" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="17">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>박준영</t>
+          <t>주현상</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5266,14 +5266,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6.75</v>
+        <v>7.25</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5293,100 +5293,100 @@
         </is>
       </c>
       <c r="L17" t="n">
+        <v>50</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>30</v>
+      </c>
+      <c r="R17" t="n">
+        <v>29</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>1</v>
+      </c>
+      <c r="X17" t="n">
+        <v>165</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>621</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL17" t="n">
         <v>4</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
         <v>4</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>3</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
-      </c>
-      <c r="X17" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>101</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>1</v>
-      </c>
       <c r="AO17" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="AP17" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.33</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="18">
@@ -6235,14 +6235,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>35 2/3</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.11</v>
+        <v>4.04</v>
       </c>
       <c r="F24" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -6281,7 +6281,7 @@
         <v>16</v>
       </c>
       <c r="S24" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -6296,13 +6296,13 @@
         <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Y24" t="n">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.267</v>
+        <v>0.263</v>
       </c>
       <c r="AA24" t="n">
         <v>9</v>
@@ -6347,13 +6347,13 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="25">
@@ -6362,7 +6362,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>강재민</t>
+          <t>신정락</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6372,53 +6372,53 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>20 1/3</t>
+          <t>33 2/3</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.54</v>
+        <v>3.48</v>
       </c>
       <c r="F25" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="O25" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P25" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="Q25" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R25" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S25" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -6433,31 +6433,31 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>89</v>
+        <v>150</v>
       </c>
       <c r="Y25" t="n">
-        <v>348</v>
+        <v>511</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.203</v>
+        <v>0.262</v>
       </c>
       <c r="AA25" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AB25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC25" t="n">
         <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -6469,28 +6469,28 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AK25" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AO25" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.95</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="26">
@@ -6499,7 +6499,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>신정락</t>
+          <t>강재민</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6509,125 +6509,125 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>33 2/3</t>
+          <t>21 1/3</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.48</v>
+        <v>3.38</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O26" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="P26" t="n">
+        <v>19</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>8</v>
+      </c>
+      <c r="R26" t="n">
+        <v>8</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>92</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>366</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO26" t="n">
         <v>21</v>
       </c>
-      <c r="Q26" t="n">
-        <v>17</v>
-      </c>
-      <c r="R26" t="n">
-        <v>13</v>
-      </c>
-      <c r="S26" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>150</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>511</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.262</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>9</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>41</v>
-      </c>
       <c r="AP26" t="n">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.11</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="27">
@@ -6646,14 +6646,14 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>34 1/3</t>
+          <t>35 1/3</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="F27" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -6671,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
@@ -6692,7 +6692,7 @@
         <v>11</v>
       </c>
       <c r="S27" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -6707,13 +6707,13 @@
         <v>2</v>
       </c>
       <c r="X27" t="n">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Y27" t="n">
-        <v>599</v>
+        <v>620</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.216</v>
+        <v>0.219</v>
       </c>
       <c r="AA27" t="n">
         <v>5</v>
@@ -6722,7 +6722,7 @@
         <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD27" t="n">
         <v>0</v>
@@ -6758,13 +6758,13 @@
         <v>3</v>
       </c>
       <c r="AO27" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AP27" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="28">
@@ -6920,14 +6920,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>33 2/3</t>
+          <t>34</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="F29" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -6945,13 +6945,13 @@
         <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M29" t="n">
         <v>2</v>
       </c>
       <c r="N29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O29" t="n">
         <v>2</v>
@@ -6966,7 +6966,7 @@
         <v>10</v>
       </c>
       <c r="S29" t="n">
-        <v>0.98</v>
+        <v>1.03</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -6981,13 +6981,13 @@
         <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Y29" t="n">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.191</v>
+        <v>0.197</v>
       </c>
       <c r="AA29" t="n">
         <v>9</v>
@@ -7032,13 +7032,13 @@
         <v>1</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP29" t="n">
         <v>35</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="30">
@@ -7057,20 +7057,20 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>12 2/3</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.42</v>
+        <v>1.32</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -7078,13 +7078,11 @@
       <c r="J30" t="n">
         <v>1</v>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K30" t="n">
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -7096,16 +7094,16 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R30" t="n">
         <v>2</v>
       </c>
       <c r="S30" t="n">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -7120,13 +7118,13 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="Y30" t="n">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.159</v>
+        <v>0.167</v>
       </c>
       <c r="AA30" t="n">
         <v>3</v>
@@ -7159,7 +7157,7 @@
         <v>0</v>
       </c>
       <c r="AK30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL30" t="n">
         <v>1</v>
@@ -7171,13 +7169,13 @@
         <v>3</v>
       </c>
       <c r="AO30" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP30" t="n">
         <v>9</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.11</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="31">

--- a/한화_기록.xlsx
+++ b/한화_기록.xlsx
@@ -583,40 +583,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.271</v>
+        <v>0.274</v>
       </c>
       <c r="E2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G2" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H2" t="n">
+        <v>10</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3</v>
+      </c>
+      <c r="M2" t="n">
+        <v>29</v>
+      </c>
+      <c r="N2" t="n">
         <v>9</v>
       </c>
-      <c r="I2" t="n">
-        <v>16</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>2</v>
-      </c>
-      <c r="M2" t="n">
-        <v>25</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -631,25 +631,25 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.424</v>
+        <v>0.468</v>
       </c>
       <c r="W2" t="n">
-        <v>0.317</v>
+        <v>0.318</v>
       </c>
       <c r="X2" t="n">
-        <v>0.741</v>
+        <v>0.786</v>
       </c>
       <c r="Y2" t="n">
         <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.385</v>
+        <v>0.357</v>
       </c>
       <c r="AA2" t="n">
         <v>0.5</v>
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.209</v>
+        <v>0.21</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" t="n">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="G4" t="n">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H4" t="n">
         <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
@@ -784,7 +784,7 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="N4" t="n">
         <v>14</v>
@@ -814,10 +814,10 @@
         <v>0.256</v>
       </c>
       <c r="W4" t="n">
-        <v>0.317</v>
+        <v>0.316</v>
       </c>
       <c r="X4" t="n">
-        <v>0.573</v>
+        <v>0.572</v>
       </c>
       <c r="Y4" t="n">
         <v>12</v>
@@ -1256,16 +1256,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.283</v>
+        <v>0.28</v>
       </c>
       <c r="E3" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F3" t="n">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G3" t="n">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H3" t="n">
         <v>38</v>
@@ -1295,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1304,25 +1304,25 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="U3" t="n">
         <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>0.394</v>
+        <v>0.39</v>
       </c>
       <c r="W3" t="n">
         <v>0.37</v>
       </c>
       <c r="X3" t="n">
-        <v>0.764</v>
+        <v>0.76</v>
       </c>
       <c r="Y3" t="n">
         <v>23</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.297</v>
+        <v>0.292</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.27</v>
+        <v>0.268</v>
       </c>
       <c r="E4" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F4" t="n">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G4" t="n">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="H4" t="n">
         <v>21</v>
       </c>
       <c r="I4" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J4" t="n">
         <v>6</v>
@@ -1370,7 +1370,7 @@
         <v>8</v>
       </c>
       <c r="M4" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N4" t="n">
         <v>25</v>
@@ -1391,25 +1391,25 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.438</v>
+        <v>0.432</v>
       </c>
       <c r="W4" t="n">
-        <v>0.311</v>
+        <v>0.308</v>
       </c>
       <c r="X4" t="n">
-        <v>0.749</v>
+        <v>0.74</v>
       </c>
       <c r="Y4" t="n">
         <v>14</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.265</v>
+        <v>0.25</v>
       </c>
       <c r="AA4" t="n">
         <v>0.6</v>
@@ -1604,22 +1604,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.218</v>
+        <v>0.219</v>
       </c>
       <c r="E7" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7" t="n">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G7" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H7" t="n">
         <v>23</v>
       </c>
       <c r="I7" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="n">
         <v>7</v>
@@ -1631,7 +1631,7 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N7" t="n">
         <v>31</v>
@@ -1658,13 +1658,13 @@
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>0.296</v>
+        <v>0.295</v>
       </c>
       <c r="W7" t="n">
-        <v>0.279</v>
+        <v>0.278</v>
       </c>
       <c r="X7" t="n">
-        <v>0.575</v>
+        <v>0.573</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -2190,37 +2190,37 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.29</v>
+        <v>0.292</v>
       </c>
       <c r="E3" t="n">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="n">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="G3" t="n">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H3" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J3" t="n">
+        <v>18</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>5</v>
+      </c>
+      <c r="M3" t="n">
+        <v>131</v>
+      </c>
+      <c r="N3" t="n">
         <v>17</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4</v>
-      </c>
-      <c r="M3" t="n">
-        <v>125</v>
-      </c>
-      <c r="N3" t="n">
-        <v>16</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="U3" t="n">
         <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>0.403</v>
+        <v>0.416</v>
       </c>
       <c r="W3" t="n">
         <v>0.353</v>
       </c>
       <c r="X3" t="n">
-        <v>0.756</v>
+        <v>0.769</v>
       </c>
       <c r="Y3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.189</v>
+        <v>0.185</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>권광민</t>
+          <t>노수광</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2364,76 +2364,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.233</v>
+        <v>0.232</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="F5" t="n">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="G5" t="n">
-        <v>60</v>
+        <v>185</v>
       </c>
       <c r="H5" t="n">
+        <v>16</v>
+      </c>
+      <c r="I5" t="n">
+        <v>43</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8</v>
+      </c>
+      <c r="K5" t="n">
+        <v>6</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" t="n">
+        <v>69</v>
+      </c>
+      <c r="N5" t="n">
+        <v>18</v>
+      </c>
+      <c r="O5" t="n">
         <v>4</v>
       </c>
-      <c r="I5" t="n">
-        <v>14</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>19</v>
-      </c>
-      <c r="N5" t="n">
-        <v>6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
       <c r="P5" t="n">
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5" t="n">
-        <v>0.317</v>
+        <v>0.373</v>
       </c>
       <c r="W5" t="n">
-        <v>0.373</v>
+        <v>0.306</v>
       </c>
       <c r="X5" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.679</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.286</v>
+        <v>0.293</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>노수광</t>
+          <t>이진영</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2451,76 +2451,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.232</v>
+        <v>0.227</v>
       </c>
       <c r="E6" t="n">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="F6" t="n">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="G6" t="n">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="H6" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="I6" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J6" t="n">
+        <v>9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="n">
         <v>8</v>
       </c>
-      <c r="K6" t="n">
-        <v>6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2</v>
-      </c>
       <c r="M6" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="N6" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="O6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="U6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
-        <v>0.376</v>
+        <v>0.43</v>
       </c>
       <c r="W6" t="n">
-        <v>0.303</v>
+        <v>0.28</v>
       </c>
       <c r="X6" t="n">
-        <v>0.679</v>
+        <v>0.71</v>
       </c>
       <c r="Y6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.3</v>
+        <v>0.268</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="7">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>이진영</t>
+          <t>권광민</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2538,76 +2538,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.218</v>
+        <v>0.226</v>
       </c>
       <c r="E7" t="n">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="G7" t="n">
-        <v>170</v>
+        <v>62</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="J7" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
+        <v>6</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>13</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="n">
         <v>28</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>14</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" t="n">
-        <v>66</v>
-      </c>
       <c r="U7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0.406</v>
+        <v>0.306</v>
       </c>
       <c r="W7" t="n">
-        <v>0.273</v>
+        <v>0.364</v>
       </c>
       <c r="X7" t="n">
-        <v>0.679</v>
+        <v>0.67</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.268</v>
+        <v>0.267</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2625,16 +2625,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.214</v>
+        <v>0.21</v>
       </c>
       <c r="E8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" t="n">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G8" t="n">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H8" t="n">
         <v>22</v>
@@ -2673,19 +2673,19 @@
         <v>2</v>
       </c>
       <c r="T8" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="U8" t="n">
         <v>7</v>
       </c>
       <c r="V8" t="n">
-        <v>0.291</v>
+        <v>0.286</v>
       </c>
       <c r="W8" t="n">
-        <v>0.281</v>
+        <v>0.276</v>
       </c>
       <c r="X8" t="n">
-        <v>0.572</v>
+        <v>0.5620000000000001</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
@@ -3616,14 +3616,14 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>44 2/3</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6.45</v>
+        <v>6.3</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -3641,28 +3641,28 @@
         <v>0.125</v>
       </c>
       <c r="L5" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="M5" t="n">
         <v>6</v>
       </c>
       <c r="N5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O5" t="n">
         <v>1</v>
       </c>
       <c r="P5" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="Q5" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R5" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="S5" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -3677,38 +3677,38 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="Y5" t="n">
-        <v>781</v>
+        <v>885</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.305</v>
+        <v>0.31</v>
       </c>
       <c r="AA5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" t="n">
         <v>11</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>10</v>
-      </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
@@ -3728,13 +3728,13 @@
         <v>2</v>
       </c>
       <c r="AO5" t="n">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="AP5" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="6">
@@ -4428,7 +4428,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>문동주</t>
+          <t>페냐</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -4438,14 +4438,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>3 2/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>8.56</v>
+        <v>4.91</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -4457,106 +4457,106 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0</v>
+      </c>
+      <c r="X11" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.231</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP11" t="n">
         <v>6</v>
       </c>
-      <c r="O11" t="n">
-        <v>1</v>
-      </c>
-      <c r="P11" t="n">
-        <v>16</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>13</v>
-      </c>
-      <c r="R11" t="n">
-        <v>13</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>62</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>246</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>0.259</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP11" t="n">
-        <v>10</v>
-      </c>
       <c r="AQ11" t="n">
-        <v>1.5</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="12">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>한승주</t>
+          <t>문동주</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4575,55 +4575,53 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>9 2/3</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.380000000000001</v>
+        <v>8.56</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Q12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="R12" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="S12" t="n">
-        <v>2.48</v>
+        <v>1.46</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -4638,19 +4636,19 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="Y12" t="n">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.444</v>
+        <v>0.259</v>
       </c>
       <c r="AA12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -4662,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -4677,25 +4675,25 @@
         <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP12" t="n">
         <v>10</v>
       </c>
-      <c r="AP12" t="n">
-        <v>9</v>
-      </c>
       <c r="AQ12" t="n">
-        <v>1.11</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="13">
@@ -4704,7 +4702,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>김재영</t>
+          <t>한승주</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -4714,11 +4712,11 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9 2/3</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>7.88</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="F13" t="n">
         <v>5</v>
@@ -4727,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4735,32 +4733,34 @@
       <c r="J13" t="n">
         <v>0</v>
       </c>
-      <c r="K13" t="n">
-        <v>0</v>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
       </c>
       <c r="L13" t="n">
+        <v>20</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q13" t="n">
         <v>9</v>
       </c>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="n">
-        <v>6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>3</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>13</v>
-      </c>
       <c r="R13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S13" t="n">
-        <v>1.88</v>
+        <v>2.48</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -4775,16 +4775,16 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="Y13" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.29</v>
+        <v>0.444</v>
       </c>
       <c r="AA13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB13" t="n">
         <v>0</v>
@@ -4793,13 +4793,13 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE13" t="n">
         <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -4826,13 +4826,13 @@
         <v>1</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.71</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="14">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>페냐</t>
+          <t>김재영</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4851,20 +4851,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3 2/3</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4.91</v>
+        <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -4876,28 +4876,28 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.36</v>
+        <v>1.89</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -4912,16 +4912,16 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="Y14" t="n">
-        <v>61</v>
+        <v>197</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.231</v>
+        <v>0.303</v>
       </c>
       <c r="AA14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -4930,13 +4930,13 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -4960,16 +4960,16 @@
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.17</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="15">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>박준영</t>
+          <t>주현상</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -5127,14 +5127,14 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>36 2/3</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6.75</v>
+        <v>7.12</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -5154,100 +5154,100 @@
         </is>
       </c>
       <c r="L16" t="n">
+        <v>50</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="n">
+        <v>11</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>23</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>30</v>
+      </c>
+      <c r="R16" t="n">
+        <v>29</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>167</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>629</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL16" t="n">
         <v>4</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
         <v>4</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" t="n">
-        <v>3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>101</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0.267</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>1</v>
-      </c>
       <c r="AO16" t="n">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="AP16" t="n">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.33</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="17">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>주현상</t>
+          <t>박준영</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -5266,14 +5266,14 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.25</v>
+        <v>6.75</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -5285,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -5293,28 +5293,28 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="Q17" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="R17" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -5326,31 +5326,31 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>165</v>
+        <v>19</v>
       </c>
       <c r="Y17" t="n">
-        <v>621</v>
+        <v>101</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.34</v>
+        <v>0.267</v>
       </c>
       <c r="AA17" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF17" t="n">
         <v>0</v>
@@ -5368,25 +5368,25 @@
         <v>0</v>
       </c>
       <c r="AK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP17" t="n">
         <v>6</v>
       </c>
-      <c r="AL17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>28</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>49</v>
-      </c>
       <c r="AQ17" t="n">
-        <v>0.57</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="18">
@@ -6235,14 +6235,14 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>35 2/3</t>
+          <t>36 2/3</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.04</v>
+        <v>3.93</v>
       </c>
       <c r="F24" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -6260,19 +6260,19 @@
         <v>0.429</v>
       </c>
       <c r="L24" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
       </c>
       <c r="P24" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q24" t="n">
         <v>17</v>
@@ -6281,7 +6281,7 @@
         <v>16</v>
       </c>
       <c r="S24" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
@@ -6296,10 +6296,10 @@
         <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Y24" t="n">
-        <v>576</v>
+        <v>599</v>
       </c>
       <c r="Z24" t="n">
         <v>0.263</v>
@@ -6347,13 +6347,13 @@
         <v>3</v>
       </c>
       <c r="AO24" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AP24" t="n">
         <v>27</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="25">
@@ -6646,20 +6646,20 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>35 1/3</t>
+          <t>36 1/3</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.8</v>
+        <v>2.97</v>
       </c>
       <c r="F27" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
         <v>13</v>
@@ -6671,28 +6671,28 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="n">
+        <v>14</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>36</v>
+      </c>
+      <c r="Q27" t="n">
         <v>13</v>
       </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>34</v>
-      </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>12</v>
       </c>
-      <c r="R27" t="n">
-        <v>11</v>
-      </c>
       <c r="S27" t="n">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -6707,16 +6707,16 @@
         <v>2</v>
       </c>
       <c r="X27" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Y27" t="n">
-        <v>620</v>
+        <v>641</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.219</v>
+        <v>0.226</v>
       </c>
       <c r="AA27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AB27" t="n">
         <v>1</v>
@@ -6728,7 +6728,7 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27" t="n">
         <v>0</v>
@@ -6746,7 +6746,7 @@
         <v>0</v>
       </c>
       <c r="AK27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL27" t="n">
         <v>16</v>
@@ -6758,13 +6758,13 @@
         <v>3</v>
       </c>
       <c r="AO27" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AP27" t="n">
         <v>35</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.89</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="28">

--- a/한화_기록.xlsx
+++ b/한화_기록.xlsx
@@ -583,22 +583,22 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.274</v>
+        <v>0.257</v>
       </c>
       <c r="E2" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="G2" t="n">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="H2" t="n">
         <v>10</v>
       </c>
       <c r="I2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -610,10 +610,10 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
@@ -631,25 +631,25 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0.468</v>
+        <v>0.429</v>
       </c>
       <c r="W2" t="n">
-        <v>0.318</v>
+        <v>0.297</v>
       </c>
       <c r="X2" t="n">
-        <v>0.786</v>
+        <v>0.726</v>
       </c>
       <c r="Y2" t="n">
         <v>4</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.357</v>
+        <v>0.353</v>
       </c>
       <c r="AA2" t="n">
         <v>0.5</v>
@@ -757,22 +757,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.21</v>
+        <v>0.217</v>
       </c>
       <c r="E4" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="G4" t="n">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="J4" t="n">
         <v>7</v>
@@ -784,10 +784,10 @@
         <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="N4" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O4" t="n">
         <v>3</v>
@@ -802,28 +802,28 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="T4" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="U4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V4" t="n">
-        <v>0.256</v>
+        <v>0.261</v>
       </c>
       <c r="W4" t="n">
-        <v>0.316</v>
+        <v>0.322</v>
       </c>
       <c r="X4" t="n">
-        <v>0.572</v>
+        <v>0.583</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.256</v>
+        <v>0.279</v>
       </c>
       <c r="AA4" t="n">
         <v>0.5</v>
@@ -1256,22 +1256,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.28</v>
+        <v>0.282</v>
       </c>
       <c r="E3" t="n">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F3" t="n">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="G3" t="n">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I3" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="J3" t="n">
         <v>12</v>
@@ -1283,7 +1283,7 @@
         <v>5</v>
       </c>
       <c r="M3" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="N3" t="n">
         <v>32</v>
@@ -1295,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1304,25 +1304,25 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="U3" t="n">
         <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>0.39</v>
+        <v>0.386</v>
       </c>
       <c r="W3" t="n">
-        <v>0.37</v>
+        <v>0.373</v>
       </c>
       <c r="X3" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="Y3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.292</v>
+        <v>0.279</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.268</v>
+        <v>0.28</v>
       </c>
       <c r="E4" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="F4" t="n">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="G4" t="n">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="H4" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I4" t="n">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="J4" t="n">
         <v>6</v>
@@ -1367,13 +1367,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M4" t="n">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="N4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -1391,25 +1391,25 @@
         <v>1</v>
       </c>
       <c r="T4" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.432</v>
+        <v>0.46</v>
       </c>
       <c r="W4" t="n">
-        <v>0.308</v>
+        <v>0.319</v>
       </c>
       <c r="X4" t="n">
-        <v>0.74</v>
+        <v>0.779</v>
       </c>
       <c r="Y4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.25</v>
+        <v>0.255</v>
       </c>
       <c r="AA4" t="n">
         <v>0.6</v>
@@ -1430,25 +1430,25 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.245</v>
+        <v>0.276</v>
       </c>
       <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>58</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
         <v>16</v>
       </c>
-      <c r="F5" t="n">
-        <v>49</v>
-      </c>
-      <c r="G5" t="n">
-        <v>49</v>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12</v>
-      </c>
       <c r="J5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="N5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1478,28 +1478,28 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="V5" t="n">
-        <v>0.469</v>
+        <v>0.483</v>
       </c>
       <c r="W5" t="n">
-        <v>0.245</v>
+        <v>0.276</v>
       </c>
       <c r="X5" t="n">
-        <v>0.714</v>
+        <v>0.759</v>
       </c>
       <c r="Y5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.167</v>
+        <v>0.176</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.5</v>
+        <v>0.333</v>
       </c>
     </row>
     <row r="6">
@@ -1517,16 +1517,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.241</v>
+        <v>0.238</v>
       </c>
       <c r="E6" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F6" t="n">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G6" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H6" t="n">
         <v>16</v>
@@ -1565,19 +1565,19 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.324</v>
+        <v>0.32</v>
       </c>
       <c r="W6" t="n">
-        <v>0.267</v>
+        <v>0.263</v>
       </c>
       <c r="X6" t="n">
-        <v>0.591</v>
+        <v>0.583</v>
       </c>
       <c r="Y6" t="n">
         <v>7</v>
@@ -1604,37 +1604,37 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.219</v>
+        <v>0.235</v>
       </c>
       <c r="E7" t="n">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F7" t="n">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="G7" t="n">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="H7" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I7" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="N7" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1643,7 +1643,7 @@
         <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="R7" t="n">
         <v>1</v>
@@ -1652,22 +1652,22 @@
         <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="U7" t="n">
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>0.295</v>
+        <v>0.319</v>
       </c>
       <c r="W7" t="n">
-        <v>0.278</v>
+        <v>0.294</v>
       </c>
       <c r="X7" t="n">
-        <v>0.573</v>
+        <v>0.613</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Z7" t="n">
         <v>0.258</v>
@@ -1781,7 +1781,7 @@
         <v>0.165</v>
       </c>
       <c r="E9" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F9" t="n">
         <v>94</v>
@@ -2190,22 +2190,22 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.292</v>
+        <v>0.291</v>
       </c>
       <c r="E3" t="n">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F3" t="n">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="G3" t="n">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="H3" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I3" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="J3" t="n">
         <v>18</v>
@@ -2214,13 +2214,13 @@
         <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="N3" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -2229,7 +2229,7 @@
         <v>2</v>
       </c>
       <c r="Q3" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="R3" t="n">
         <v>2</v>
@@ -2244,19 +2244,19 @@
         <v>7</v>
       </c>
       <c r="V3" t="n">
-        <v>0.416</v>
+        <v>0.418</v>
       </c>
       <c r="W3" t="n">
-        <v>0.353</v>
+        <v>0.359</v>
       </c>
       <c r="X3" t="n">
-        <v>0.769</v>
+        <v>0.777</v>
       </c>
       <c r="Y3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.185</v>
+        <v>0.237</v>
       </c>
       <c r="AA3" t="n">
         <v>0</v>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>유로결</t>
+          <t>노수광</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2277,76 +2277,76 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.286</v>
+        <v>0.229</v>
       </c>
       <c r="E4" t="n">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="F4" t="n">
-        <v>14</v>
+        <v>217</v>
       </c>
       <c r="G4" t="n">
-        <v>14</v>
+        <v>192</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I4" t="n">
+        <v>44</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2</v>
+      </c>
+      <c r="M4" t="n">
+        <v>71</v>
+      </c>
+      <c r="N4" t="n">
+        <v>18</v>
+      </c>
+      <c r="O4" t="n">
         <v>4</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="n">
-        <v>0.286</v>
+        <v>0.37</v>
       </c>
       <c r="W4" t="n">
-        <v>0.286</v>
+        <v>0.3</v>
       </c>
       <c r="X4" t="n">
-        <v>0.572</v>
+        <v>0.67</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="AA4" t="n">
         <v>0.2</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>노수광</t>
+          <t>권광민</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2364,76 +2364,76 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.232</v>
+        <v>0.224</v>
       </c>
       <c r="E5" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>210</v>
+        <v>83</v>
       </c>
       <c r="G5" t="n">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="H5" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="J5" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>20</v>
+      </c>
+      <c r="N5" t="n">
         <v>8</v>
       </c>
-      <c r="K5" t="n">
-        <v>6</v>
-      </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
-      <c r="M5" t="n">
-        <v>69</v>
-      </c>
-      <c r="N5" t="n">
-        <v>18</v>
-      </c>
       <c r="O5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q5" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0.373</v>
+        <v>0.299</v>
       </c>
       <c r="W5" t="n">
-        <v>0.306</v>
+        <v>0.349</v>
       </c>
       <c r="X5" t="n">
-        <v>0.679</v>
+        <v>0.648</v>
       </c>
       <c r="Y5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.293</v>
+        <v>0.278</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>이진영</t>
+          <t>김태연</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2451,76 +2451,76 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.227</v>
+        <v>0.218</v>
       </c>
       <c r="E6" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="F6" t="n">
-        <v>189</v>
+        <v>252</v>
       </c>
       <c r="G6" t="n">
-        <v>172</v>
+        <v>225</v>
       </c>
       <c r="H6" t="n">
         <v>26</v>
       </c>
       <c r="I6" t="n">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M6" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="N6" t="n">
         <v>29</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="V6" t="n">
-        <v>0.43</v>
+        <v>0.302</v>
       </c>
       <c r="W6" t="n">
-        <v>0.28</v>
+        <v>0.291</v>
       </c>
       <c r="X6" t="n">
-        <v>0.71</v>
+        <v>0.593</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.268</v>
+        <v>0.231</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.429</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>권광민</t>
+          <t>이진영</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2538,76 +2538,76 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.226</v>
+        <v>0.217</v>
       </c>
       <c r="E7" t="n">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="F7" t="n">
-        <v>77</v>
+        <v>202</v>
       </c>
       <c r="G7" t="n">
-        <v>62</v>
+        <v>184</v>
       </c>
       <c r="H7" t="n">
+        <v>26</v>
+      </c>
+      <c r="I7" t="n">
+        <v>40</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8</v>
+      </c>
+      <c r="M7" t="n">
+        <v>75</v>
+      </c>
+      <c r="N7" t="n">
+        <v>29</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>15</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>71</v>
+      </c>
+      <c r="U7" t="n">
         <v>4</v>
       </c>
-      <c r="I7" t="n">
-        <v>14</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>19</v>
-      </c>
-      <c r="N7" t="n">
-        <v>6</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>13</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" t="n">
-        <v>28</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
       <c r="V7" t="n">
-        <v>0.306</v>
+        <v>0.408</v>
       </c>
       <c r="W7" t="n">
-        <v>0.364</v>
+        <v>0.272</v>
       </c>
       <c r="X7" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="Y7" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.267</v>
+        <v>0.25</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>0.429</v>
       </c>
     </row>
     <row r="8">
@@ -2616,7 +2616,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>김태연</t>
+          <t>유로결</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2625,73 +2625,73 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0.21</v>
+        <v>0.208</v>
       </c>
       <c r="E8" t="n">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>210</v>
+        <v>24</v>
       </c>
       <c r="H8" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="N8" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z8" t="n">
         <v>0.286</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.276</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.5620000000000001</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>0.226</v>
       </c>
       <c r="AA8" t="n">
         <v>0</v>
@@ -3205,14 +3205,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>90</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.19</v>
+        <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="n">
         <v>3</v>
@@ -3230,25 +3230,25 @@
         <v>0.3</v>
       </c>
       <c r="L2" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M2" t="n">
         <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="O2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="Q2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R2" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S2" t="n">
         <v>1.46</v>
@@ -3266,16 +3266,16 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="Y2" t="n">
-        <v>1467</v>
+        <v>1567</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.238</v>
+        <v>0.237</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB2" t="n">
         <v>1</v>
@@ -3290,13 +3290,13 @@
         <v>6</v>
       </c>
       <c r="AF2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
         <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>3</v>
@@ -3317,13 +3317,13 @@
         <v>9</v>
       </c>
       <c r="AO2" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AP2" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3">
@@ -3479,14 +3479,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>59 2/3</t>
+          <t>64 2/3</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4.22</v>
+        <v>4.18</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" t="n">
         <v>3</v>
@@ -3504,28 +3504,28 @@
         <v>0.429</v>
       </c>
       <c r="L4" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q4" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -3540,13 +3540,13 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="Y4" t="n">
-        <v>984</v>
+        <v>1076</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.283</v>
+        <v>0.275</v>
       </c>
       <c r="AA4" t="n">
         <v>9</v>
@@ -3570,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI4" t="n">
         <v>3</v>
@@ -3591,10 +3591,10 @@
         <v>4</v>
       </c>
       <c r="AO4" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="AP4" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.19</v>
@@ -3890,14 +3890,14 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>36 2/3</t>
+          <t>37 2/3</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5.89</v>
+        <v>6.93</v>
       </c>
       <c r="F7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -3915,7 +3915,7 @@
         <v>0.5</v>
       </c>
       <c r="L7" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="M7" t="n">
         <v>2</v>
@@ -3927,16 +3927,16 @@
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q7" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="R7" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="S7" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="Y7" t="n">
-        <v>655</v>
+        <v>693</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.327</v>
+        <v>0.342</v>
       </c>
       <c r="AA7" t="n">
         <v>9</v>
@@ -4005,10 +4005,10 @@
         <v>44</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="8">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>카펜터</t>
+          <t>라미레즈</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -4027,11 +4027,11 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>19 1/3</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="F8" t="n">
         <v>4</v>
@@ -4052,28 +4052,28 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Q8" t="n">
         <v>6</v>
       </c>
       <c r="R8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>1.39</v>
+        <v>1.03</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -4082,22 +4082,22 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="n">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.268</v>
+        <v>0.191</v>
       </c>
       <c r="AA8" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AB8" t="n">
         <v>0</v>
@@ -4112,7 +4112,7 @@
         <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
         <v>0</v>
@@ -4136,16 +4136,16 @@
         <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="9">
@@ -4154,7 +4154,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>라미레즈</t>
+          <t>카펜터</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -4164,14 +4164,14 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13 1/3</t>
+          <t>18</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>2.03</v>
+        <v>2.5</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
@@ -4198,19 +4198,19 @@
         <v>6</v>
       </c>
       <c r="O9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="Q9" t="n">
         <v>6</v>
       </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -4219,22 +4219,22 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="n">
-        <v>220</v>
+        <v>330</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.245</v>
+        <v>0.268</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
@@ -4249,13 +4249,13 @@
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
@@ -4273,16 +4273,16 @@
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AP9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.31</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="10">
@@ -4438,14 +4438,14 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3 2/3</t>
+          <t>8 1/3</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4.91</v>
+        <v>4.32</v>
       </c>
       <c r="F11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -4463,28 +4463,28 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S11" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -4499,13 +4499,13 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="Y11" t="n">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.231</v>
+        <v>0.25</v>
       </c>
       <c r="AA11" t="n">
         <v>2</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -4550,13 +4550,13 @@
         <v>0</v>
       </c>
       <c r="AO11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AP11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="12">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>문동주</t>
+          <t>김재영</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -4575,53 +4575,53 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>8.56</v>
+        <v>6.3</v>
       </c>
       <c r="F12" t="n">
+        <v>7</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>10</v>
       </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>14</v>
-      </c>
       <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
         <v>4</v>
       </c>
-      <c r="N12" t="n">
-        <v>6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1</v>
-      </c>
       <c r="P12" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
         <v>13</v>
       </c>
       <c r="R12" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="S12" t="n">
-        <v>1.46</v>
+        <v>1.8</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -4636,31 +4636,31 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="Y12" t="n">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.259</v>
+        <v>0.278</v>
       </c>
       <c r="AA12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG12" t="n">
         <v>0</v>
@@ -4678,22 +4678,22 @@
         <v>1</v>
       </c>
       <c r="AL12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
         <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="13">
@@ -4841,7 +4841,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>김재영</t>
+          <t>문동주</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -4851,53 +4851,53 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13 2/3</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>8.56</v>
       </c>
       <c r="F14" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>2</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>14</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="n">
         <v>6</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>10</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>7</v>
-      </c>
       <c r="O14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P14" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="n">
         <v>13</v>
       </c>
       <c r="R14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="S14" t="n">
-        <v>1.89</v>
+        <v>1.46</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -4912,31 +4912,31 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="Y14" t="n">
-        <v>197</v>
+        <v>246</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.303</v>
+        <v>0.259</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
@@ -4951,22 +4951,22 @@
         <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AM14" t="n">
         <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.5</v>
@@ -4978,7 +4978,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>김기중</t>
+          <t>송윤준</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -4988,14 +4988,14 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4 1/3</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>6.23</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>2.33</v>
+        <v>1.15</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -5051,22 +5051,22 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Y15" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.1</v>
+        <v>0.188</v>
       </c>
       <c r="AA15" t="n">
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD15" t="n">
         <v>0</v>
@@ -5090,7 +5090,7 @@
         <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15" t="n">
         <v>0</v>
@@ -5105,10 +5105,10 @@
         <v>3</v>
       </c>
       <c r="AP15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="16">
@@ -5127,20 +5127,20 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>36 2/3</t>
+          <t>38 1/3</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.12</v>
+        <v>7.98</v>
       </c>
       <c r="F16" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -5148,34 +5148,32 @@
       <c r="J16" t="n">
         <v>2</v>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+      <c r="K16" t="n">
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O16" t="n">
         <v>3</v>
       </c>
       <c r="P16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="Q16" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="R16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S16" t="n">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -5190,16 +5188,16 @@
         <v>1</v>
       </c>
       <c r="X16" t="n">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="n">
-        <v>629</v>
+        <v>679</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.336</v>
+        <v>0.348</v>
       </c>
       <c r="AA16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB16" t="n">
         <v>2</v>
@@ -5208,7 +5206,7 @@
         <v>2</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>1</v>
@@ -5241,10 +5239,10 @@
         <v>4</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP16" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.59</v>
@@ -5532,7 +5530,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>송윤준</t>
+          <t>김기중</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -5542,14 +5540,14 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>4 1/3</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6.23</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -5569,28 +5567,28 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.15</v>
+        <v>2.33</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -5605,22 +5603,22 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.188</v>
+        <v>0.1</v>
       </c>
       <c r="AA19" t="n">
         <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="n">
         <v>0</v>
@@ -5644,7 +5642,7 @@
         <v>0</v>
       </c>
       <c r="AK19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
         <v>0</v>
@@ -5659,10 +5657,10 @@
         <v>3</v>
       </c>
       <c r="AP19" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20">
@@ -6086,7 +6084,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>임준섭</t>
+          <t>김범수</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -6096,55 +6094,53 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>36 2/3</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>5.15</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.375</v>
       </c>
       <c r="L23" t="n">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="S23" t="n">
-        <v>1</v>
+        <v>1.53</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -6156,67 +6152,67 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X23" t="n">
+        <v>163</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>615</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
         <v>4</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>3</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL23" t="n">
         <v>16</v>
       </c>
-      <c r="Z23" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>0</v>
-      </c>
       <c r="AM23" t="n">
         <v>0</v>
       </c>
       <c r="AN23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO23" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AP23" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="24">
@@ -6225,7 +6221,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>김범수</t>
+          <t>임준섭</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -6235,92 +6231,94 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>36 2/3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.93</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
         <v>4</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>15</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.429</v>
-      </c>
-      <c r="L24" t="n">
-        <v>36</v>
-      </c>
-      <c r="M24" t="n">
-        <v>4</v>
-      </c>
-      <c r="N24" t="n">
-        <v>14</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>33</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>17</v>
-      </c>
-      <c r="R24" t="n">
+      <c r="Y24" t="n">
         <v>16</v>
       </c>
-      <c r="S24" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>156</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>599</v>
-      </c>
       <c r="Z24" t="n">
-        <v>0.263</v>
+        <v>0.25</v>
       </c>
       <c r="AA24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AB24" t="n">
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
       </c>
       <c r="AE24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AF24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG24" t="n">
         <v>0</v>
@@ -6332,28 +6330,28 @@
         <v>0</v>
       </c>
       <c r="AJ24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AK24" t="n">
         <v>1</v>
       </c>
       <c r="AL24" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
       </c>
       <c r="AN24" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO24" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -6362,7 +6360,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>신정락</t>
+          <t>장시환</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -6372,53 +6370,53 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>33 2/3</t>
+          <t>37 2/3</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.48</v>
+        <v>3.82</v>
       </c>
       <c r="F25" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O25" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="Q25" t="n">
         <v>17</v>
       </c>
       <c r="R25" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="S25" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -6430,34 +6428,34 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X25" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="Y25" t="n">
-        <v>511</v>
+        <v>678</v>
       </c>
       <c r="Z25" t="n">
-        <v>0.262</v>
+        <v>0.236</v>
       </c>
       <c r="AA25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC25" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
         <v>1</v>
       </c>
       <c r="AF25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG25" t="n">
         <v>0</v>
@@ -6469,28 +6467,28 @@
         <v>0</v>
       </c>
       <c r="AJ25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AK25" t="n">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO25" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AP25" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="26">
@@ -6499,7 +6497,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>강재민</t>
+          <t>신정락</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -6509,125 +6507,125 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21 1/3</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.38</v>
+        <v>3.25</v>
       </c>
       <c r="F26" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O26" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P26" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="Q26" t="n">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="R26" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>160</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>549</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>47</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>1.27</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>92</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>366</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>0.195</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>2</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>4</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>3</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>0.95</v>
       </c>
     </row>
     <row r="27">
@@ -6636,7 +6634,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>장시환</t>
+          <t>강재민</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -6646,53 +6644,53 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>36 1/3</t>
+          <t>24 1/3</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="F27" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="L27" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N27" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P27" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="Q27" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="R27" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="S27" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
@@ -6704,67 +6702,67 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="Y27" t="n">
-        <v>641</v>
+        <v>413</v>
       </c>
       <c r="Z27" t="n">
-        <v>0.226</v>
+        <v>0.195</v>
       </c>
       <c r="AA27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AB27" t="n">
         <v>1</v>
       </c>
       <c r="AC27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL27" t="n">
         <v>4</v>
       </c>
-      <c r="AD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK27" t="n">
+      <c r="AM27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO27" t="n">
         <v>26</v>
       </c>
-      <c r="AL27" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>32</v>
-      </c>
       <c r="AP27" t="n">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0.91</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="28">
@@ -6773,7 +6771,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>윤호솔</t>
+          <t>김종수</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -6783,14 +6781,14 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>26 2/3</t>
+          <t>35</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.7</v>
+        <v>2.83</v>
       </c>
       <c r="F28" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G28" t="n">
         <v>3</v>
@@ -6808,28 +6806,28 @@
         <v>0.5</v>
       </c>
       <c r="L28" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P28" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q28" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="R28" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S28" t="n">
-        <v>1.28</v>
+        <v>1.14</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -6844,34 +6842,34 @@
         <v>2</v>
       </c>
       <c r="X28" t="n">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="Y28" t="n">
-        <v>420</v>
+        <v>631</v>
       </c>
       <c r="Z28" t="n">
-        <v>0.212</v>
+        <v>0.211</v>
       </c>
       <c r="AA28" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH28" t="n">
         <v>0</v>
@@ -6886,22 +6884,22 @@
         <v>4</v>
       </c>
       <c r="AL28" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM28" t="n">
         <v>0</v>
       </c>
       <c r="AN28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO28" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AP28" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.84</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -6910,7 +6908,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>김종수</t>
+          <t>윤호솔</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -6920,14 +6918,14 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>26 2/3</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="F29" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G29" t="n">
         <v>3</v>
@@ -6939,34 +6937,34 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
         <v>0.5</v>
       </c>
       <c r="L29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="Q29" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="R29" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="S29" t="n">
-        <v>1.03</v>
+        <v>1.28</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -6981,34 +6979,34 @@
         <v>2</v>
       </c>
       <c r="X29" t="n">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="Y29" t="n">
-        <v>581</v>
+        <v>420</v>
       </c>
       <c r="Z29" t="n">
-        <v>0.197</v>
+        <v>0.212</v>
       </c>
       <c r="AA29" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AB29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AD29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH29" t="n">
         <v>0</v>
@@ -7023,22 +7021,22 @@
         <v>4</v>
       </c>
       <c r="AL29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM29" t="n">
         <v>0</v>
       </c>
       <c r="AN29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO29" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AP29" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.63</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="30">
@@ -7057,53 +7055,53 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>13 2/3</t>
+          <t>14 2/3</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.32</v>
+        <v>1.84</v>
       </c>
       <c r="F30" t="n">
+        <v>14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>10</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>12</v>
       </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>8</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>9</v>
-      </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S30" t="n">
-        <v>1.24</v>
+        <v>1.5</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -7118,13 +7116,13 @@
         <v>1</v>
       </c>
       <c r="X30" t="n">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="Y30" t="n">
-        <v>237</v>
+        <v>270</v>
       </c>
       <c r="Z30" t="n">
-        <v>0.167</v>
+        <v>0.189</v>
       </c>
       <c r="AA30" t="n">
         <v>3</v>
@@ -7169,13 +7167,13 @@
         <v>3</v>
       </c>
       <c r="AO30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="31">
